--- a/ingestao_de_dados/origens/tbl_contadores_brasil_2024.xlsx
+++ b/ingestao_de_dados/origens/tbl_contadores_brasil_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\distribuicao_profissao\distribuicao-de-profissoes\ingestao_de_dados\origens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D536BA94-BBEC-4395-935A-4890FEEFD55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3C3F6-1FDA-4BA8-BFF3-321490934600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{815C0955-B4A0-4F60-BC71-4A7A4CC57B45}"/>
+    <workbookView xWindow="5505" yWindow="2970" windowWidth="19440" windowHeight="10320" xr2:uid="{815C0955-B4A0-4F60-BC71-4A7A4CC57B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -125,13 +125,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF283B56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,6 +141,12 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -171,12 +170,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0FF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -190,28 +189,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FFA3C0E8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFA3C0E8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFA3C0E8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFBED6F6"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFBED6F6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -231,41 +208,6 @@
         <color rgb="FFA3C0E8"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFBED6F6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFBED6F6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3C0E8"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFBED6F6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBED6F6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
       <top style="medium">
         <color rgb="FFBED6F6"/>
       </top>
@@ -288,12 +230,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color rgb="FFA3C0E8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA3C0E8"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FFBED6F6"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right/>
       <top style="medium">
-        <color rgb="FFBED6F6"/>
+        <color rgb="FFA3C0E8"/>
       </top>
       <bottom style="medium">
         <color rgb="FFBED6F6"/>
@@ -304,79 +259,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,490 +677,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1BAAFC-A181-4DC8-B2E2-C8340C7D306D}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="13">
+      <c r="B2" s="11">
         <v>6407</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13">
+      <c r="C2" s="5">
         <v>4512</v>
       </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="9">
+      <c r="B3" s="3">
         <v>6276</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9">
+      <c r="C3" s="3">
         <v>4137</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4">
+      <c r="B4" s="1">
         <v>2886</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4">
+      <c r="C4" s="1">
         <v>2637</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="9">
+      <c r="B5" s="3">
         <v>4241</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9">
+      <c r="C5" s="3">
         <v>4037</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="18">
+      <c r="B6" s="3">
         <v>1832</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="18">
+      <c r="C6" s="6">
         <v>1433</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4">
+      <c r="B7" s="1">
         <v>9497</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4">
+      <c r="C7" s="1">
         <v>7314</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9">
+      <c r="B8" s="3">
         <v>5587</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9">
+      <c r="C8" s="3">
         <v>4375</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4">
+      <c r="B9" s="1">
         <v>3425</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4">
+      <c r="C9" s="1">
         <v>2475</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9">
+      <c r="B10" s="3">
         <v>2811</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9">
+      <c r="C10" s="3">
         <v>2247</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4">
+      <c r="B11" s="1">
         <v>5904</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4">
+      <c r="C11" s="1">
         <v>5094</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9">
+      <c r="B12" s="3">
         <v>2809</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9">
+      <c r="C12" s="3">
         <v>2233</v>
       </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="4">
+      <c r="B13" s="1">
         <v>3006</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4">
+      <c r="C13" s="1">
         <v>2761</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9">
+      <c r="B14" s="3">
         <v>1469</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9">
+      <c r="C14" s="3">
         <v>1313</v>
       </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24">
+      <c r="B15" s="8">
         <v>539</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="24">
+      <c r="C15" s="9">
         <v>512</v>
       </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="4">
+      <c r="B16" s="1">
         <v>2532</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4">
+      <c r="C16" s="1">
         <v>3106</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="23">
+      <c r="B17" s="8">
         <v>743</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="23">
+      <c r="C17" s="8">
         <v>660</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4">
+      <c r="B18" s="1">
         <v>5178</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4">
+      <c r="C18" s="1">
         <v>5728</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9">
+      <c r="B19" s="3">
         <v>1882</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9">
+      <c r="C19" s="3">
         <v>1719</v>
       </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="22">
+      <c r="B20" s="7">
         <v>501</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="22">
+      <c r="C20" s="7">
         <v>551</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9">
+      <c r="B21" s="3">
         <v>1580</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9">
+      <c r="C21" s="3">
         <v>1277</v>
       </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="18">
+      <c r="B22" s="3">
         <v>4174</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18">
+      <c r="C22" s="6">
         <v>4174</v>
       </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="4">
+      <c r="B23" s="1">
         <v>17903</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4">
+      <c r="C23" s="1">
         <v>18568</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9">
+      <c r="B24" s="3">
         <v>20288</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9">
+      <c r="C24" s="3">
         <v>17855</v>
       </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="4">
+      <c r="B25" s="1">
         <v>56528</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4">
+      <c r="C25" s="1">
         <v>49302</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13">
+      <c r="B26" s="1">
         <v>15933</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13">
+      <c r="C26" s="5">
         <v>12027</v>
       </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9">
+      <c r="B27" s="3">
         <v>12378</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9">
+      <c r="C27" s="3">
         <v>13618</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="4">
+      <c r="B28" s="1">
         <v>9728</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4">
+      <c r="C28" s="1">
         <v>9328</v>
       </c>
-      <c r="F28" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
